--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
   <si>
     <t>TC</t>
   </si>
@@ -191,12 +196,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,13 +299,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -346,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +390,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +442,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,22 +634,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -632,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -646,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -660,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -674,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -688,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -709,24 +754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -766,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -783,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -801,7 +846,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -819,7 +864,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -837,7 +882,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -855,7 +900,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -873,7 +918,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -891,7 +936,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -909,7 +954,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -926,7 +971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -943,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -960,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -984,27 +1029,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -1045,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -1080,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1162,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
@@ -1154,7 +1199,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
@@ -1191,7 +1236,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
@@ -1228,7 +1273,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1265,7 +1310,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
@@ -1302,7 +1347,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1339,7 +1384,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1421,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1458,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
@@ -1450,7 +1495,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -1485,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
@@ -1527,29 +1572,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -1593,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1661,7 @@
         <v>48</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>54</v>
@@ -1633,7 +1678,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>
@@ -171,9 +171,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -198,13 +195,13 @@
     <t>Monthly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +296,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -754,7 +751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,28 +1095,28 @@
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>6</v>
@@ -1133,28 +1130,28 @@
         <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>6</v>
@@ -1170,28 +1167,28 @@
         <v>20</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>6</v>
@@ -1207,28 +1204,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>6</v>
@@ -1244,28 +1241,28 @@
         <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>6</v>
@@ -1281,28 +1278,28 @@
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>6</v>
@@ -1318,28 +1315,28 @@
         <v>24</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>6</v>
@@ -1355,28 +1352,28 @@
         <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>6</v>
@@ -1392,28 +1389,28 @@
         <v>26</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>6</v>
@@ -1429,28 +1426,28 @@
         <v>27</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>6</v>
@@ -1466,28 +1463,28 @@
         <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>6</v>
@@ -1503,28 +1500,28 @@
         <v>34</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>6</v>
@@ -1538,28 +1535,28 @@
         <v>35</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>6</v>
@@ -1572,10 +1569,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1626,7 +1623,7 @@
         <v>46</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>2</v>
@@ -1646,31 +1643,31 @@
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>6</v>
@@ -1678,7 +1675,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
